--- a/docs/odh/obf-CodedSocialHistoryObservation.xlsx
+++ b/docs/odh/obf-CodedSocialHistoryObservation.xlsx
@@ -395,7 +395,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReferralRequest)
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -424,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Procedure)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure)
 </t>
   </si>
   <si>
@@ -792,7 +792,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -823,7 +823,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DomainResource)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -846,7 +846,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -937,7 +937,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1068,7 +1068,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Annotation}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Specimen)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
 </t>
   </si>
   <si>
@@ -1398,7 +1398,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DocumentReference|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Media|http://hl7.org/fhir/us/odh/StructureDefinition/obf-QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1468,7 +1468,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SampledData}timedateTimePeriod</t>
+CodeableConceptstringRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
